--- a/contratos/contratos-4-2014.xlsx
+++ b/contratos/contratos-4-2014.xlsx
@@ -652,7 +652,7 @@
     <t>VALENZUELA NESTOR GABRIEL</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>A. ROPELATO S.R.L.</t>
@@ -670,10 +670,10 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MOSCA OLGA RAQUEL</t>
@@ -712,7 +712,7 @@
     <t>MAYJO S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -829,7 +829,7 @@
     <t>LAZZA MAURICIO RODRIGO</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -925,7 +925,7 @@
     <t>ARDETI GUSTAVO EMANUEL</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CENTINELA S.R.L.</t>
@@ -1183,7 +1183,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>MFZ</t>
@@ -1375,640 +1375,640 @@
     <t>106</t>
   </si>
   <si>
-    <t>912,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>3.220,00</t>
-  </si>
-  <si>
-    <t>96.000,00</t>
-  </si>
-  <si>
-    <t>78.000,00</t>
-  </si>
-  <si>
-    <t>30.625,00</t>
-  </si>
-  <si>
-    <t>95.000,00</t>
-  </si>
-  <si>
-    <t>160.930,00</t>
-  </si>
-  <si>
-    <t>814,56</t>
-  </si>
-  <si>
-    <t>437,58</t>
-  </si>
-  <si>
-    <t>4.199,92</t>
-  </si>
-  <si>
-    <t>355.276,64</t>
-  </si>
-  <si>
-    <t>43.184,57</t>
-  </si>
-  <si>
-    <t>6.277,50</t>
-  </si>
-  <si>
-    <t>5.515,00</t>
-  </si>
-  <si>
-    <t>2.207,09</t>
-  </si>
-  <si>
-    <t>14.064,02</t>
-  </si>
-  <si>
-    <t>10.202,40</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>7.460,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>114,00</t>
-  </si>
-  <si>
-    <t>2.092,50</t>
-  </si>
-  <si>
-    <t>265,35</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>8.030,90</t>
-  </si>
-  <si>
-    <t>708,94</t>
-  </si>
-  <si>
-    <t>1.015,44</t>
-  </si>
-  <si>
-    <t>705,00</t>
-  </si>
-  <si>
-    <t>1.268,00</t>
-  </si>
-  <si>
-    <t>13.311,00</t>
-  </si>
-  <si>
-    <t>306,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>81.462,65</t>
-  </si>
-  <si>
-    <t>1.007,70</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>45,14</t>
-  </si>
-  <si>
-    <t>3.642,00</t>
-  </si>
-  <si>
-    <t>9.760,00</t>
-  </si>
-  <si>
-    <t>14.386,90</t>
-  </si>
-  <si>
-    <t>3.072,71</t>
-  </si>
-  <si>
-    <t>907,50</t>
-  </si>
-  <si>
-    <t>1.460,00</t>
-  </si>
-  <si>
-    <t>4,96</t>
-  </si>
-  <si>
-    <t>10.520,66</t>
-  </si>
-  <si>
-    <t>6.646,92</t>
-  </si>
-  <si>
-    <t>1.132,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>22.585,96</t>
-  </si>
-  <si>
-    <t>360,19</t>
-  </si>
-  <si>
-    <t>101.065,22</t>
-  </si>
-  <si>
-    <t>864,63</t>
-  </si>
-  <si>
-    <t>155,00</t>
-  </si>
-  <si>
-    <t>6.537,00</t>
-  </si>
-  <si>
-    <t>5.964,75</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>43.672,00</t>
-  </si>
-  <si>
-    <t>3.153,00</t>
-  </si>
-  <si>
-    <t>305,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>12.860,00</t>
-  </si>
-  <si>
-    <t>5,04</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>38.889,51</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>388,00</t>
-  </si>
-  <si>
-    <t>19.056,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>178,38</t>
-  </si>
-  <si>
-    <t>396,00</t>
-  </si>
-  <si>
-    <t>1.376,85</t>
-  </si>
-  <si>
-    <t>489,00</t>
-  </si>
-  <si>
-    <t>26.495,00</t>
-  </si>
-  <si>
-    <t>1.337,05</t>
-  </si>
-  <si>
-    <t>109,20</t>
-  </si>
-  <si>
-    <t>2.871,00</t>
-  </si>
-  <si>
-    <t>8.159,00</t>
-  </si>
-  <si>
-    <t>157,58</t>
-  </si>
-  <si>
-    <t>1.570,00</t>
-  </si>
-  <si>
-    <t>118,46</t>
-  </si>
-  <si>
-    <t>44.400,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>0,64</t>
-  </si>
-  <si>
-    <t>21.221,88</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>410.745,87</t>
-  </si>
-  <si>
-    <t>308,60</t>
-  </si>
-  <si>
-    <t>289.935,82</t>
-  </si>
-  <si>
-    <t>55.047,50</t>
-  </si>
-  <si>
-    <t>1,24</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>8,94</t>
-  </si>
-  <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>177,64</t>
-  </si>
-  <si>
-    <t>1.825,00</t>
-  </si>
-  <si>
-    <t>14,24</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>2.868,72</t>
-  </si>
-  <si>
-    <t>3.789,00</t>
-  </si>
-  <si>
-    <t>21,38</t>
-  </si>
-  <si>
-    <t>15.085,00</t>
-  </si>
-  <si>
-    <t>468,00</t>
-  </si>
-  <si>
-    <t>385,00</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>9.429,10</t>
-  </si>
-  <si>
-    <t>1.220,21</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>664,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>2.310,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.485,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>102,80</t>
-  </si>
-  <si>
-    <t>840,50</t>
-  </si>
-  <si>
-    <t>1.712,78</t>
-  </si>
-  <si>
-    <t>77,00</t>
-  </si>
-  <si>
-    <t>1.476,65</t>
-  </si>
-  <si>
-    <t>154.000,00</t>
-  </si>
-  <si>
-    <t>10.234,88</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>10.167,50</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>17.608,51</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>6.030,66</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>15.940,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>301,29</t>
-  </si>
-  <si>
-    <t>1.430,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>565,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>4.402,00</t>
-  </si>
-  <si>
-    <t>691,71</t>
-  </si>
-  <si>
-    <t>5.160,00</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>277,04</t>
-  </si>
-  <si>
-    <t>2.705,00</t>
-  </si>
-  <si>
-    <t>858,90</t>
-  </si>
-  <si>
-    <t>15.061,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.406,00</t>
-  </si>
-  <si>
-    <t>27.781,60</t>
-  </si>
-  <si>
-    <t>80,25</t>
-  </si>
-  <si>
-    <t>6,52</t>
-  </si>
-  <si>
-    <t>1.082,56</t>
-  </si>
-  <si>
-    <t>991,00</t>
-  </si>
-  <si>
-    <t>4.223,40</t>
-  </si>
-  <si>
-    <t>843,00</t>
-  </si>
-  <si>
-    <t>10.207,00</t>
-  </si>
-  <si>
-    <t>79,20</t>
-  </si>
-  <si>
-    <t>3.578,00</t>
-  </si>
-  <si>
-    <t>1.209,60</t>
-  </si>
-  <si>
-    <t>2.721,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>22,50</t>
-  </si>
-  <si>
-    <t>87,00</t>
-  </si>
-  <si>
-    <t>17.600,00</t>
-  </si>
-  <si>
-    <t>219,00</t>
-  </si>
-  <si>
-    <t>3.240,00</t>
-  </si>
-  <si>
-    <t>62.658,00</t>
-  </si>
-  <si>
-    <t>6.440,00</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>1.361,16</t>
-  </si>
-  <si>
-    <t>112,00</t>
-  </si>
-  <si>
-    <t>615,00</t>
-  </si>
-  <si>
-    <t>274.069,66</t>
-  </si>
-  <si>
-    <t>7.036,39</t>
-  </si>
-  <si>
-    <t>4.977,17</t>
-  </si>
-  <si>
-    <t>728.609,27</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>3.635,67</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>291.000,00</t>
-  </si>
-  <si>
-    <t>410.385,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>257.200,00</t>
-  </si>
-  <si>
-    <t>115.000,00</t>
-  </si>
-  <si>
-    <t>206.266,00</t>
-  </si>
-  <si>
-    <t>446.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>160.752,00</t>
-  </si>
-  <si>
-    <t>121.000,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>8.380,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>2.544,00</t>
-  </si>
-  <si>
-    <t>325.353,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
+    <t>912.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>3220.00</t>
+  </si>
+  <si>
+    <t>96000.00</t>
+  </si>
+  <si>
+    <t>78000.00</t>
+  </si>
+  <si>
+    <t>30625.00</t>
+  </si>
+  <si>
+    <t>95000.00</t>
+  </si>
+  <si>
+    <t>160930.00</t>
+  </si>
+  <si>
+    <t>814.56</t>
+  </si>
+  <si>
+    <t>437.58</t>
+  </si>
+  <si>
+    <t>4199.92</t>
+  </si>
+  <si>
+    <t>355276.64</t>
+  </si>
+  <si>
+    <t>43184.57</t>
+  </si>
+  <si>
+    <t>6277.50</t>
+  </si>
+  <si>
+    <t>5515.00</t>
+  </si>
+  <si>
+    <t>2207.09</t>
+  </si>
+  <si>
+    <t>14064.02</t>
+  </si>
+  <si>
+    <t>10202.40</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>7460.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>2092.50</t>
+  </si>
+  <si>
+    <t>265.35</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>8030.90</t>
+  </si>
+  <si>
+    <t>708.94</t>
+  </si>
+  <si>
+    <t>1015.44</t>
+  </si>
+  <si>
+    <t>705.00</t>
+  </si>
+  <si>
+    <t>1268.00</t>
+  </si>
+  <si>
+    <t>13311.00</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>81462.65</t>
+  </si>
+  <si>
+    <t>1007.70</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>45.14</t>
+  </si>
+  <si>
+    <t>3642.00</t>
+  </si>
+  <si>
+    <t>9760.00</t>
+  </si>
+  <si>
+    <t>14386.90</t>
+  </si>
+  <si>
+    <t>3072.71</t>
+  </si>
+  <si>
+    <t>907.50</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>10520.66</t>
+  </si>
+  <si>
+    <t>6646.92</t>
+  </si>
+  <si>
+    <t>1132.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>22585.96</t>
+  </si>
+  <si>
+    <t>360.19</t>
+  </si>
+  <si>
+    <t>101065.22</t>
+  </si>
+  <si>
+    <t>864.63</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>6537.00</t>
+  </si>
+  <si>
+    <t>5964.75</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>43672.00</t>
+  </si>
+  <si>
+    <t>3153.00</t>
+  </si>
+  <si>
+    <t>305.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>12860.00</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>38889.51</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>388.00</t>
+  </si>
+  <si>
+    <t>19056.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>178.38</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>1376.85</t>
+  </si>
+  <si>
+    <t>489.00</t>
+  </si>
+  <si>
+    <t>26495.00</t>
+  </si>
+  <si>
+    <t>1337.05</t>
+  </si>
+  <si>
+    <t>109.20</t>
+  </si>
+  <si>
+    <t>2871.00</t>
+  </si>
+  <si>
+    <t>8159.00</t>
+  </si>
+  <si>
+    <t>157.58</t>
+  </si>
+  <si>
+    <t>1570.00</t>
+  </si>
+  <si>
+    <t>118.46</t>
+  </si>
+  <si>
+    <t>44400.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>21221.88</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>410745.87</t>
+  </si>
+  <si>
+    <t>308.60</t>
+  </si>
+  <si>
+    <t>289935.82</t>
+  </si>
+  <si>
+    <t>55047.50</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>8.94</t>
+  </si>
+  <si>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>177.64</t>
+  </si>
+  <si>
+    <t>1825.00</t>
+  </si>
+  <si>
+    <t>14.24</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>2868.72</t>
+  </si>
+  <si>
+    <t>3789.00</t>
+  </si>
+  <si>
+    <t>21.38</t>
+  </si>
+  <si>
+    <t>15085.00</t>
+  </si>
+  <si>
+    <t>468.00</t>
+  </si>
+  <si>
+    <t>385.00</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>9429.10</t>
+  </si>
+  <si>
+    <t>1220.21</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>664.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>2310.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1485.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>102.80</t>
+  </si>
+  <si>
+    <t>840.50</t>
+  </si>
+  <si>
+    <t>1712.78</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>1476.65</t>
+  </si>
+  <si>
+    <t>154000.00</t>
+  </si>
+  <si>
+    <t>10234.88</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>10167.50</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>17608.51</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>6030.66</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>15940.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>301.29</t>
+  </si>
+  <si>
+    <t>1430.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>565.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>4402.00</t>
+  </si>
+  <si>
+    <t>691.71</t>
+  </si>
+  <si>
+    <t>5160.00</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>277.04</t>
+  </si>
+  <si>
+    <t>2705.00</t>
+  </si>
+  <si>
+    <t>858.90</t>
+  </si>
+  <si>
+    <t>15061.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1406.00</t>
+  </si>
+  <si>
+    <t>27781.60</t>
+  </si>
+  <si>
+    <t>80.25</t>
+  </si>
+  <si>
+    <t>6.52</t>
+  </si>
+  <si>
+    <t>1082.56</t>
+  </si>
+  <si>
+    <t>991.00</t>
+  </si>
+  <si>
+    <t>4223.40</t>
+  </si>
+  <si>
+    <t>843.00</t>
+  </si>
+  <si>
+    <t>10207.00</t>
+  </si>
+  <si>
+    <t>79.20</t>
+  </si>
+  <si>
+    <t>3578.00</t>
+  </si>
+  <si>
+    <t>1209.60</t>
+  </si>
+  <si>
+    <t>2721.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>17600.00</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>3240.00</t>
+  </si>
+  <si>
+    <t>62658.00</t>
+  </si>
+  <si>
+    <t>6440.00</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>1361.16</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>615.00</t>
+  </si>
+  <si>
+    <t>274069.66</t>
+  </si>
+  <si>
+    <t>7036.39</t>
+  </si>
+  <si>
+    <t>4977.17</t>
+  </si>
+  <si>
+    <t>728609.27</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>3635.67</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>291000.00</t>
+  </si>
+  <si>
+    <t>410385.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>257200.00</t>
+  </si>
+  <si>
+    <t>115000.00</t>
+  </si>
+  <si>
+    <t>206266.00</t>
+  </si>
+  <si>
+    <t>446000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>160752.00</t>
+  </si>
+  <si>
+    <t>121000.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>8380.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>2544.00</t>
+  </si>
+  <si>
+    <t>325353.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>3750.00</t>
   </si>
 </sst>
 </file>
